--- a/data/SpeciesListFromLEMIS_07-11_Romagosa.xlsx
+++ b/data/SpeciesListFromLEMIS_07-11_Romagosa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christina\Dropbox\HorizonScanningWorkshop_2019\1WorkshopFilesDec19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mneilson\Documents\R\projects\FLHorizonScanning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD4800-89FA-450F-B8B3-44BD19F3BD1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A972AB2-36D4-4180-AE10-D86AE241F43C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{64694C37-842E-4E44-A8C6-DCA2A4FA6FF7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64694C37-842E-4E44-A8C6-DCA2A4FA6FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -3131,11 +3131,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3459,29 +3459,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9F9F05-7EDD-418E-88DB-25A74803173C}">
   <dimension ref="A1:W518"/>
   <sheetViews>
-    <sheetView topLeftCell="F151" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="2.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -3624,7 +3630,7 @@
         <v>1.1793276309297952E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -3696,7 +3702,7 @@
         <v>4.9062057852172074E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>3.1059959105380255E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>7.7016908474417306E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>2.1741971373766177E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>2.9094941284427623E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -4056,7 +4062,7 @@
         <v>5.2865318150790065E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -4128,7 +4134,7 @@
         <v>6.6303504539240294E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>6.7850163727344948E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -4272,7 +4278,7 @@
         <v>1.1818631377955404E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -4344,7 +4350,7 @@
         <v>1.037466021791344E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -4416,7 +4422,7 @@
         <v>8.6264282339820373E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
@@ -4488,7 +4494,7 @@
         <v>3.4926607075641876E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -4560,7 +4566,7 @@
         <v>6.5542852479516696E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -4632,7 +4638,7 @@
         <v>1.1004099797334717E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -4704,7 +4710,7 @@
         <v>1.6987896000493689E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -4776,7 +4782,7 @@
         <v>2.2375848090202509E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -4848,7 +4854,7 @@
         <v>3.4165955015918278E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -4920,7 +4926,7 @@
         <v>1.4559514299826103E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -4992,7 +4998,7 @@
         <v>1.3438186388450231E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
@@ -5064,7 +5070,7 @@
         <v>1.8002098746791819E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
@@ -5136,7 +5142,7 @@
         <v>2.2058909731984343E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -5208,7 +5214,7 @@
         <v>5.6858741464338953E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>7.6363128029084877E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
@@ -5352,7 +5358,7 @@
         <v>1.9396627522951749E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
@@ -5424,7 +5430,7 @@
         <v>1.0059623489844584E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -5496,7 +5502,7 @@
         <v>1.2740922000370267E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
@@ -5568,7 +5574,7 @@
         <v>1.3374798716806598E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>3.7525501613030834E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
@@ -5712,7 +5718,7 @@
         <v>3.0743020747162086E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
@@ -5784,7 +5790,7 @@
         <v>1.8255649433366351E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
@@ -5856,7 +5862,7 @@
         <v>3.2685219006323009E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
@@ -5928,7 +5934,7 @@
         <v>1.3615671869052405E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>18</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>6.7746841822565818E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>18</v>
       </c>
@@ -6072,7 +6078,7 @@
         <v>3.1820611165103853E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -6144,7 +6150,7 @@
         <v>4.9315608538746607E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="26" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>18</v>
       </c>
@@ -6216,7 +6222,7 @@
         <v>9.425746773408252E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>18</v>
       </c>
@@ -6288,7 +6294,7 @@
         <v>3.8793255045903497E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>18</v>
       </c>
@@ -6360,7 +6366,7 @@
         <v>1.502287817954106E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>18</v>
       </c>
@@ -6432,7 +6438,7 @@
         <v>1.0209091619580271E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>18</v>
       </c>
@@ -6504,7 +6510,7 @@
         <v>2.7097595750936745E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>18</v>
       </c>
@@ -6576,7 +6582,7 @@
         <v>5.628825241954625E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>18</v>
       </c>
@@ -6648,7 +6654,7 @@
         <v>1.2138739119755751E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="26" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>18</v>
       </c>
@@ -6720,7 +6726,7 @@
         <v>3.1224767051653697E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>18</v>
       </c>
@@ -6792,7 +6798,7 @@
         <v>2.9228055394879256E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>18</v>
       </c>
@@ -6864,7 +6870,7 @@
         <v>7.2832434718534509E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>18</v>
       </c>
@@ -6936,7 +6942,7 @@
         <v>1.920646450802085E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>18</v>
       </c>
@@ -7008,7 +7014,7 @@
         <v>1.901630149308995E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="26" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>18</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>3.6955012568238138E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>1.4633043998932716E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>18</v>
       </c>
@@ -7224,7 +7230,7 @@
         <v>4.3585363022162168E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>18</v>
       </c>
@@ -7296,7 +7302,7 @@
         <v>2.2122297403627975E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>18</v>
       </c>
@@ -7368,7 +7374,7 @@
         <v>3.0394388553122104E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>18</v>
       </c>
@@ -7440,7 +7446,7 @@
         <v>1.170009643198181E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>18</v>
       </c>
@@ -7512,7 +7518,7 @@
         <v>1.3216329537697516E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>18</v>
       </c>
@@ -7584,7 +7590,7 @@
         <v>1.7368222030355487E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="26" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>18</v>
       </c>
@@ -7656,7 +7662,7 @@
         <v>1.8002098746791819E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>18</v>
       </c>
@@ -7728,7 +7734,7 @@
         <v>9.6792974599827847E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>18</v>
       </c>
@@ -7800,7 +7806,7 @@
         <v>4.0200461356392153E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>18</v>
       </c>
@@ -7872,7 +7878,7 @@
         <v>2.8816035529195637E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>18</v>
       </c>
@@ -7944,7 +7950,7 @@
         <v>5.3942908568731826E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>18</v>
       </c>
@@ -8016,7 +8022,7 @@
         <v>3.2391100209896549E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>18</v>
       </c>
@@ -8088,7 +8094,7 @@
         <v>1.5973693254195558E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="26" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>18</v>
       </c>
@@ -8160,7 +8166,7 @@
         <v>3.0869796090449352E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>18</v>
       </c>
@@ -8232,7 +8238,7 @@
         <v>4.221618931465969E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>18</v>
       </c>
@@ -8304,7 +8310,7 @@
         <v>5.0710137314906537E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>18</v>
       </c>
@@ -8376,7 +8382,7 @@
         <v>2.3909829743978432E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>18</v>
       </c>
@@ -8448,7 +8454,7 @@
         <v>3.76522769563181E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>18</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>5.7809556538993447E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>18</v>
       </c>
@@ -8592,7 +8598,7 @@
         <v>4.0213138890720881E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>18</v>
       </c>
@@ -8664,7 +8670,7 @@
         <v>3.2771426239758348E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>18</v>
       </c>
@@ -8736,7 +8742,7 @@
         <v>7.9424752569472361E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>18</v>
       </c>
@@ -8808,7 +8814,7 @@
         <v>7.8917651196323295E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>18</v>
       </c>
@@ -8880,7 +8886,7 @@
         <v>3.3925715740388907E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>18</v>
       </c>
@@ -8952,7 +8958,7 @@
         <v>1.1004099797334717E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>18</v>
       </c>
@@ -9024,7 +9030,7 @@
         <v>1.5893190911208145E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>18</v>
       </c>
@@ -9096,7 +9102,7 @@
         <v>5.666857844940805E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>18</v>
       </c>
@@ -9168,7 +9174,7 @@
         <v>1.7748548060217286E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>18</v>
       </c>
@@ -9240,7 +9246,7 @@
         <v>4.4054431792325049E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>18</v>
       </c>
@@ -9312,7 +9318,7 @@
         <v>1.8442199351013565E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>18</v>
       </c>
@@ -9384,7 +9390,7 @@
         <v>8.020695643755479E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>18</v>
       </c>
@@ -9456,7 +9462,7 @@
         <v>0.1949129289035286</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>18</v>
       </c>
@@ -9528,7 +9534,7 @@
         <v>2.3383712069336275E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>18</v>
       </c>
@@ -9600,7 +9606,7 @@
         <v>1.1663331582428502E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>18</v>
       </c>
@@ -9672,7 +9678,7 @@
         <v>4.4398436686335051E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="26" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>18</v>
       </c>
@@ -9744,7 +9750,7 @@
         <v>2.4974742627591469E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>18</v>
       </c>
@@ -9816,7 +9822,7 @@
         <v>3.2796781308415803E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>18</v>
       </c>
@@ -9888,7 +9894,7 @@
         <v>9.3211571151962571E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>18</v>
       </c>
@@ -9960,7 +9966,7 @@
         <v>0.23686673445957021</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>18</v>
       </c>
@@ -10032,7 +10038,7 @@
         <v>1.080696413852302E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>18</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>5.3854165828430736E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>18</v>
       </c>
@@ -10176,7 +10182,7 @@
         <v>1.5720142567621027E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>18</v>
       </c>
@@ -10248,7 +10254,7 @@
         <v>2.5380423726110721E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>18</v>
       </c>
@@ -10320,7 +10326,7 @@
         <v>3.7810746135427182E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>18</v>
       </c>
@@ -10392,7 +10398,7 @@
         <v>2.6745160296598141E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>18</v>
       </c>
@@ -10464,7 +10470,7 @@
         <v>4.0314559165350694E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>18</v>
       </c>
@@ -10536,7 +10542,7 @@
         <v>3.2479842950197636E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>18</v>
       </c>
@@ -10608,7 +10614,7 @@
         <v>1.8319037105009984E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>18</v>
       </c>
@@ -10680,7 +10686,7 @@
         <v>1.7051283672137321E-5</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>18</v>
       </c>
@@ -10752,7 +10758,7 @@
         <v>5.9584411345015176E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>18</v>
       </c>
@@ -10824,7 +10830,7 @@
         <v>3.0507155220976127E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>18</v>
       </c>
@@ -10896,7 +10902,7 @@
         <v>3.9191963500541955E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>18</v>
       </c>
@@ -10968,7 +10974,7 @@
         <v>3.0743020747162086E-5</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>18</v>
       </c>
@@ -11040,7 +11046,7 @@
         <v>3.5370320777147305E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="18" t="s">
         <v>18</v>
       </c>
@@ -11112,7 +11118,7 @@
         <v>1.8326009748890785E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>18</v>
       </c>
@@ -11184,7 +11190,7 @@
         <v>1.0713150384490441E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>18</v>
       </c>
@@ -11256,7 +11262,7 @@
         <v>5.7048904479269849E-5</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="26" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>18</v>
       </c>
@@ -11328,7 +11334,7 @@
         <v>4.5440086294454875E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>18</v>
       </c>
@@ -11400,7 +11406,7 @@
         <v>2.3884474675320977E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>18</v>
       </c>
@@ -11472,7 +11478,7 @@
         <v>3.5687259135365475E-5</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>18</v>
       </c>
@@ -11544,7 +11550,7 @@
         <v>2.9576687588919238E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>18</v>
       </c>
@@ -11616,7 +11622,7 @@
         <v>9.2672775942991687E-5</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>18</v>
       </c>
@@ -11688,7 +11694,7 @@
         <v>3.023591937401302E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="26" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>211</v>
       </c>
@@ -11756,7 +11762,7 @@
         <v>4.7160427702863078E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>211</v>
       </c>
@@ -11824,7 +11830,7 @@
         <v>5.4006296240375456E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>211</v>
       </c>
@@ -11892,7 +11898,7 @@
         <v>1.3438186388450231E-5</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>211</v>
       </c>
@@ -11960,7 +11966,7 @@
         <v>2.0791156299111679E-5</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>211</v>
       </c>
@@ -12028,7 +12034,7 @@
         <v>1.2804309672013901E-5</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>211</v>
       </c>
@@ -12096,7 +12102,7 @@
         <v>6.4765085748449318E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>211</v>
       </c>
@@ -12164,7 +12170,7 @@
         <v>3.194738650839112E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>211</v>
       </c>
@@ -12232,7 +12238,7 @@
         <v>1.502287817954106E-5</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>211</v>
       </c>
@@ -12300,7 +12306,7 @@
         <v>1.2677534328726634E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>211</v>
       </c>
@@ -12368,7 +12374,7 @@
         <v>5.5083886658317223E-5</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>211</v>
       </c>
@@ -12436,7 +12442,7 @@
         <v>3.3868032959193204E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>211</v>
       </c>
@@ -12504,7 +12510,7 @@
         <v>7.8600712838105126E-5</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="26" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>211</v>
       </c>
@@ -12572,7 +12578,7 @@
         <v>3.8032602986179899E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>211</v>
       </c>
@@ -12640,7 +12646,7 @@
         <v>6.6873993584032996E-5</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>211</v>
       </c>
@@ -12708,7 +12714,7 @@
         <v>2.0284054925962613E-5</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>211</v>
       </c>
@@ -12776,7 +12782,7 @@
         <v>4.4244594807255952E-5</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>211</v>
       </c>
@@ -12844,7 +12850,7 @@
         <v>2.2502623433489775E-5</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>211</v>
       </c>
@@ -12912,7 +12918,7 @@
         <v>4.3040229046026918E-5</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>211</v>
       </c>
@@ -12980,7 +12986,7 @@
         <v>9.8428376528233584E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>211</v>
       </c>
@@ -13048,7 +13054,7 @@
         <v>6.1993142867473237E-5</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>211</v>
       </c>
@@ -13116,7 +13122,7 @@
         <v>8.0058629285908686E-5</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>211</v>
       </c>
@@ -13184,7 +13190,7 @@
         <v>1.2677534328726634E-5</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>211</v>
       </c>
@@ -13252,7 +13258,7 @@
         <v>5.0462925395496365E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>211</v>
       </c>
@@ -13320,7 +13326,7 @@
         <v>4.4751696180405017E-5</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>211</v>
       </c>
@@ -13388,7 +13394,7 @@
         <v>3.3215139941263777E-5</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>211</v>
       </c>
@@ -13456,7 +13462,7 @@
         <v>3.0020401290424667E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>211</v>
       </c>
@@ -13524,7 +13530,7 @@
         <v>5.3708374183650384E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>211</v>
       </c>
@@ -13592,7 +13598,7 @@
         <v>2.0474217940893513E-5</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>211</v>
       </c>
@@ -13660,7 +13666,7 @@
         <v>3.3316560215893595E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>211</v>
       </c>
@@ -13728,7 +13734,7 @@
         <v>4.4371370150543218E-5</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>211</v>
       </c>
@@ -13796,7 +13802,7 @@
         <v>3.7931182711550089E-4</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>211</v>
       </c>
@@ -13864,7 +13870,7 @@
         <v>8.0565730659057751E-5</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="26" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>211</v>
       </c>
@@ -13932,7 +13938,7 @@
         <v>1.5859595445237017E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>211</v>
       </c>
@@ -14000,7 +14006,7 @@
         <v>1.2360595970508468E-4</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>211</v>
       </c>
@@ -14068,7 +14074,7 @@
         <v>7.9234589554541464E-5</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>211</v>
       </c>
@@ -14136,7 +14142,7 @@
         <v>1.3793157349654576E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>211</v>
       </c>
@@ -14204,7 +14210,7 @@
         <v>1.0693500206280916E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>211</v>
       </c>
@@ -14272,7 +14278,7 @@
         <v>8.5218385757700427E-4</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>211</v>
       </c>
@@ -14340,7 +14346,7 @@
         <v>8.4876092330824808E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>211</v>
       </c>
@@ -14408,7 +14414,7 @@
         <v>4.3325473568423271E-4</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>211</v>
       </c>
@@ -14476,7 +14482,7 @@
         <v>1.1739396788400862E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>211</v>
       </c>
@@ -14544,7 +14550,7 @@
         <v>6.4528649733218565E-5</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>211</v>
       </c>
@@ -14612,7 +14618,7 @@
         <v>5.3942908568731826E-5</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>211</v>
       </c>
@@ -14680,7 +14686,7 @@
         <v>2.0600993284180779E-4</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>211</v>
       </c>
@@ -14748,7 +14754,7 @@
         <v>5.8361029282293054E-4</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>211</v>
       </c>
@@ -14816,7 +14822,7 @@
         <v>2.903155361278399E-5</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>211</v>
       </c>
@@ -14884,7 +14890,7 @@
         <v>8.9756943047384567E-5</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>211</v>
       </c>
@@ -14952,7 +14958,7 @@
         <v>2.8911117036661089E-4</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>211</v>
       </c>
@@ -15020,7 +15026,7 @@
         <v>6.8458685375123816E-5</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>211</v>
       </c>
@@ -15088,7 +15094,7 @@
         <v>7.3783249793189003E-5</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>211</v>
       </c>
@@ -15156,7 +15162,7 @@
         <v>2.6863695242571739E-4</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>211</v>
       </c>
@@ -15224,7 +15230,7 @@
         <v>6.9726438807996479E-5</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>211</v>
       </c>
@@ -15292,7 +15298,7 @@
         <v>3.8729867374259868E-5</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>211</v>
       </c>
@@ -15360,7 +15366,7 @@
         <v>1.2240793271102001E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>211</v>
       </c>
@@ -15428,7 +15434,7 @@
         <v>1.8382424776653618E-5</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>211</v>
       </c>
@@ -15496,7 +15502,7 @@
         <v>2.2692786448420674E-5</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>211</v>
       </c>
@@ -15564,7 +15570,7 @@
         <v>2.8080738538129492E-5</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>211</v>
       </c>
@@ -15632,7 +15638,7 @@
         <v>6.3292590136167714E-4</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>211</v>
       </c>
@@ -15700,7 +15706,7 @@
         <v>3.0178870469533751E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>211</v>
       </c>
@@ -15768,7 +15774,7 @@
         <v>1.2006258886020557E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>211</v>
       </c>
@@ -15836,7 +15842,7 @@
         <v>1.9891051361772087E-4</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>211</v>
       </c>
@@ -15904,7 +15910,7 @@
         <v>2.0133826144167204E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>211</v>
       </c>
@@ -15972,7 +15978,7 @@
         <v>2.8473742102320021E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>211</v>
       </c>
@@ -16040,7 +16046,7 @@
         <v>2.1868746717053443E-5</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>211</v>
       </c>
@@ -16108,7 +16114,7 @@
         <v>1.1688686651085956E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>211</v>
       </c>
@@ -16176,7 +16182,7 @@
         <v>1.2677534328726634E-5</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>211</v>
       </c>
@@ -16244,7 +16250,7 @@
         <v>8.2720911494941286E-5</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>211</v>
       </c>
@@ -16312,7 +16318,7 @@
         <v>1.0526917405201447E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>211</v>
       </c>
@@ -16380,7 +16386,7 @@
         <v>8.6207233435341108E-5</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>211</v>
       </c>
@@ -16448,7 +16454,7 @@
         <v>8.3671726569595781E-5</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>211</v>
       </c>
@@ -16516,7 +16522,7 @@
         <v>4.5100328374444998E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>211</v>
       </c>
@@ -16584,7 +16590,7 @@
         <v>3.4357385784282049E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>211</v>
       </c>
@@ -16652,7 +16658,7 @@
         <v>2.8524452239634924E-5</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>211</v>
       </c>
@@ -16720,7 +16726,7 @@
         <v>8.6841110151777433E-5</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>211</v>
       </c>
@@ -16788,7 +16794,7 @@
         <v>1.6385713119879174E-4</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190" s="6" t="s">
         <v>211</v>
       </c>
@@ -16856,7 +16862,7 @@
         <v>1.4224193516831283E-4</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>211</v>
       </c>
@@ -16924,7 +16930,7 @@
         <v>5.7809556538993447E-5</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>211</v>
       </c>
@@ -16992,7 +16998,7 @@
         <v>2.180535904540981E-5</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>211</v>
       </c>
@@ -17060,7 +17066,7 @@
         <v>2.8524452239634924E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
         <v>211</v>
       </c>
@@ -17128,7 +17134,7 @@
         <v>6.0218288061451508E-5</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>211</v>
       </c>
@@ -17196,7 +17202,7 @@
         <v>1.0598418698815466E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196" s="6" t="s">
         <v>211</v>
       </c>
@@ -17264,7 +17270,7 @@
         <v>1.7114671343780954E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>211</v>
       </c>
@@ -17332,7 +17338,7 @@
         <v>2.7256698806762261E-5</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>211</v>
       </c>
@@ -17400,7 +17406,7 @@
         <v>2.0347442597606247E-5</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>211</v>
       </c>
@@ -17468,7 +17474,7 @@
         <v>3.4102567344274641E-5</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
         <v>211</v>
       </c>
@@ -17536,7 +17542,7 @@
         <v>1.7875323403504552E-5</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>211</v>
       </c>
@@ -17604,7 +17610,7 @@
         <v>1.9776953552813548E-5</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202" s="6" t="s">
         <v>211</v>
       </c>
@@ -17672,7 +17678,7 @@
         <v>2.2312460418558875E-5</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>211</v>
       </c>
@@ -17740,7 +17746,7 @@
         <v>1.31846357018757E-5</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>211</v>
       </c>
@@ -17808,7 +17814,7 @@
         <v>1.8699363134871784E-5</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>211</v>
       </c>
@@ -17876,7 +17882,7 @@
         <v>2.3516826179787906E-5</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>211</v>
       </c>
@@ -17944,7 +17950,7 @@
         <v>1.7114671343780954E-5</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>211</v>
       </c>
@@ -18012,7 +18018,7 @@
         <v>1.4034030501900384E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208" s="6" t="s">
         <v>211</v>
       </c>
@@ -18080,7 +18086,7 @@
         <v>8.823563892793737E-5</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>211</v>
       </c>
@@ -18148,7 +18154,7 @@
         <v>2.1171482328973478E-4</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>211</v>
       </c>
@@ -18216,7 +18222,7 @@
         <v>1.2677534328726634E-5</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211" s="6" t="s">
         <v>211</v>
       </c>
@@ -18284,7 +18290,7 @@
         <v>2.2249072746915242E-5</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>211</v>
       </c>
@@ -18352,7 +18358,7 @@
         <v>4.4003721655010147E-4</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>211</v>
       </c>
@@ -18420,7 +18426,7 @@
         <v>2.9918981015794854E-5</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214" s="6" t="s">
         <v>211</v>
       </c>
@@ -18488,7 +18494,7 @@
         <v>8.0692506002345024E-5</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>211</v>
       </c>
@@ -18556,7 +18562,7 @@
         <v>7.6445532002221604E-5</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>211</v>
       </c>
@@ -18624,7 +18630,7 @@
         <v>1.7875323403504552E-5</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>211</v>
       </c>
@@ -18692,7 +18698,7 @@
         <v>1.5339816537759228E-5</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>211</v>
       </c>
@@ -18760,7 +18766,7 @@
         <v>1.8445812448297251E-5</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>211</v>
       </c>
@@ -18828,7 +18834,7 @@
         <v>2.6052333045533233E-5</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220" s="6" t="s">
         <v>211</v>
       </c>
@@ -18896,7 +18902,7 @@
         <v>5.6098089404615354E-5</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>211</v>
       </c>
@@ -18964,7 +18970,7 @@
         <v>2.3624585221582081E-4</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>211</v>
       </c>
@@ -19032,7 +19038,7 @@
         <v>2.1425033015548011E-5</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
         <v>211</v>
       </c>
@@ -19100,7 +19106,7 @@
         <v>1.2867697343657534E-5</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224" s="18" t="s">
         <v>211</v>
       </c>
@@ -19168,7 +19174,7 @@
         <v>2.2730819051406854E-4</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>211</v>
       </c>
@@ -19236,7 +19242,7 @@
         <v>1.3091455824559559E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226" s="6" t="s">
         <v>211</v>
       </c>
@@ -19304,7 +19310,7 @@
         <v>1.9460015194595382E-5</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>408</v>
       </c>
@@ -19376,7 +19382,7 @@
         <v>2.7915930591856046E-4</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>408</v>
       </c>
@@ -19448,7 +19454,7 @@
         <v>1.362834940338113E-5</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229" s="6" t="s">
         <v>408</v>
       </c>
@@ -19520,7 +19526,7 @@
         <v>7.974169092769053E-5</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>408</v>
       </c>
@@ -19592,7 +19598,7 @@
         <v>6.0028125046520612E-5</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>408</v>
       </c>
@@ -19664,7 +19670,7 @@
         <v>4.0187783822063428E-5</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232" s="6" t="s">
         <v>408</v>
       </c>
@@ -19736,7 +19742,7 @@
         <v>2.1108094657329845E-5</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>408</v>
       </c>
@@ -19808,7 +19814,7 @@
         <v>6.0662001762956944E-5</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
         <v>408</v>
       </c>
@@ -19880,7 +19886,7 @@
         <v>6.0091512718164243E-4</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A235" s="6" t="s">
         <v>408</v>
       </c>
@@ -19952,7 +19958,7 @@
         <v>3.4920268308477511E-4</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>408</v>
       </c>
@@ -20024,7 +20030,7 @@
         <v>1.603708092583919E-5</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>408</v>
       </c>
@@ -20096,7 +20102,7 @@
         <v>1.4072063104886563E-5</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>408</v>
       </c>
@@ -20168,7 +20174,7 @@
         <v>6.0172648937868089E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>408</v>
       </c>
@@ -20240,7 +20246,7 @@
         <v>1.2265514463043019E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>408</v>
       </c>
@@ -20312,7 +20318,7 @@
         <v>1.3578907019499097E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>408</v>
       </c>
@@ -20384,7 +20390,7 @@
         <v>8.5896633844287308E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>408</v>
       </c>
@@ -20456,7 +20462,7 @@
         <v>2.8595446431875795E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>408</v>
       </c>
@@ -20528,7 +20534,7 @@
         <v>2.7240281399806561E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>408</v>
       </c>
@@ -20600,7 +20606,7 @@
         <v>9.2407815475521304E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>408</v>
       </c>
@@ -20672,7 +20678,7 @@
         <v>2.0155377952526038E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A246" s="6" t="s">
         <v>408</v>
       </c>
@@ -20744,7 +20750,7 @@
         <v>2.903155361278399E-5</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
         <v>408</v>
       </c>
@@ -20816,7 +20822,7 @@
         <v>5.8696983942004312E-5</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>469</v>
       </c>
@@ -20888,7 +20894,7 @@
         <v>8.1262995047137726E-5</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>469</v>
       </c>
@@ -20960,7 +20966,7 @@
         <v>1.1086503770471441E-4</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A250" s="6" t="s">
         <v>469</v>
       </c>
@@ -21032,7 +21038,7 @@
         <v>1.29944726869448E-5</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A251" s="6" t="s">
         <v>469</v>
       </c>
@@ -21104,7 +21110,7 @@
         <v>4.9886097583539302E-5</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A252" s="6" t="s">
         <v>469</v>
       </c>
@@ -21176,7 +21182,7 @@
         <v>3.6232393111500721E-4</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>469</v>
       </c>
@@ -21248,7 +21254,7 @@
         <v>1.2619851547530927E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A254" s="6" t="s">
         <v>469</v>
       </c>
@@ -21320,7 +21326,7 @@
         <v>8.7487664402542502E-4</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A255" s="6" t="s">
         <v>469</v>
       </c>
@@ -21392,7 +21398,7 @@
         <v>6.2829860133169191E-4</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A256" s="6" t="s">
         <v>469</v>
       </c>
@@ -21464,7 +21470,7 @@
         <v>4.1201986568361559E-5</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>469</v>
       </c>
@@ -21536,7 +21542,7 @@
         <v>6.7317707285538425E-5</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A258" s="6" t="s">
         <v>469</v>
       </c>
@@ -21608,7 +21614,7 @@
         <v>7.6933617073877579E-4</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A259" s="6" t="s">
         <v>469</v>
       </c>
@@ -21680,7 +21686,7 @@
         <v>7.695263337537067E-5</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A260" s="6" t="s">
         <v>469</v>
       </c>
@@ -21752,7 +21758,7 @@
         <v>5.7239067494200752E-5</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
         <v>469</v>
       </c>
@@ -21824,7 +21830,7 @@
         <v>5.628825241954625E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>469</v>
       </c>
@@ -21896,7 +21902,7 @@
         <v>1.9650178209526281E-5</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A263" s="6" t="s">
         <v>469</v>
       </c>
@@ -21968,7 +21974,7 @@
         <v>2.8524452239634924E-5</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A264" s="6" t="s">
         <v>469</v>
       </c>
@@ -22040,7 +22046,7 @@
         <v>5.2168053762710097E-5</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A265" s="6" t="s">
         <v>469</v>
       </c>
@@ -22112,7 +22118,7 @@
         <v>1.0841510419568798E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
         <v>469</v>
       </c>
@@ -22184,7 +22190,7 @@
         <v>6.9488735039332861E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A267" s="6" t="s">
         <v>469</v>
       </c>
@@ -22256,7 +22262,7 @@
         <v>1.743160970199912E-5</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A268" s="6" t="s">
         <v>469</v>
       </c>
@@ -22328,7 +22334,7 @@
         <v>1.767882162140929E-4</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>469</v>
       </c>
@@ -22400,7 +22406,7 @@
         <v>2.6717903597791377E-4</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A270" s="6" t="s">
         <v>469</v>
       </c>
@@ -22472,7 +22478,7 @@
         <v>4.0301881631021967E-4</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>469</v>
       </c>
@@ -22544,7 +22550,7 @@
         <v>1.0626309274338664E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A272" s="6" t="s">
         <v>469</v>
       </c>
@@ -22616,7 +22622,7 @@
         <v>1.464635540997788E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A273" s="6" t="s">
         <v>469</v>
       </c>
@@ -22688,7 +22694,7 @@
         <v>5.6415027762833517E-5</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A274" s="6" t="s">
         <v>469</v>
       </c>
@@ -22760,7 +22766,7 @@
         <v>7.5621492270854369E-5</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>469</v>
       </c>
@@ -22832,7 +22838,7 @@
         <v>1.0972405961512902E-4</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A276" s="6" t="s">
         <v>469</v>
       </c>
@@ -22904,7 +22910,7 @@
         <v>1.743160970199912E-5</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A277" s="6" t="s">
         <v>469</v>
       </c>
@@ -22976,7 +22982,7 @@
         <v>4.1201986568361559E-5</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A278" s="6" t="s">
         <v>469</v>
       </c>
@@ -23048,7 +23054,7 @@
         <v>8.7601762211501032E-5</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A279" s="6" t="s">
         <v>469</v>
       </c>
@@ -23120,7 +23126,7 @@
         <v>8.1009444360563194E-5</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A280" s="6" t="s">
         <v>469</v>
       </c>
@@ -23192,7 +23198,7 @@
         <v>3.76522769563181E-5</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A281" s="6" t="s">
         <v>469</v>
       </c>
@@ -23264,7 +23270,7 @@
         <v>1.123863418241616E-4</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A282" s="6" t="s">
         <v>469</v>
       </c>
@@ -23336,7 +23342,7 @@
         <v>3.19156926725693E-4</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A283" s="6" t="s">
         <v>469</v>
       </c>
@@ -23408,7 +23414,7 @@
         <v>5.1280626359699231E-4</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A284" s="6" t="s">
         <v>469</v>
       </c>
@@ -23480,7 +23486,7 @@
         <v>1.0306835409254753E-4</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A285" s="6" t="s">
         <v>469</v>
       </c>
@@ -23552,7 +23558,7 @@
         <v>2.1108094657329845E-5</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A286" s="6" t="s">
         <v>469</v>
       </c>
@@ -23624,7 +23630,7 @@
         <v>1.5339816537759227E-4</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A287" s="6" t="s">
         <v>469</v>
       </c>
@@ -23696,7 +23702,7 @@
         <v>1.6613908737796252E-4</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A288" s="6" t="s">
         <v>469</v>
       </c>
@@ -23768,7 +23774,7 @@
         <v>6.0218288061451508E-5</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A289" s="6" t="s">
         <v>469</v>
       </c>
@@ -23840,7 +23846,7 @@
         <v>5.3118868837364598E-5</v>
       </c>
     </row>
-    <row r="290" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A290" s="6" t="s">
         <v>469</v>
       </c>
@@ -23912,7 +23918,7 @@
         <v>1.5086265851184694E-5</v>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A291" s="6" t="s">
         <v>469</v>
       </c>
@@ -23984,7 +23990,7 @@
         <v>6.2817182598840472E-5</v>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A292" s="6" t="s">
         <v>469</v>
       </c>
@@ -24056,7 +24062,7 @@
         <v>5.9470313536056643E-4</v>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A293" s="6" t="s">
         <v>469</v>
       </c>
@@ -24128,7 +24134,7 @@
         <v>2.319988782156974E-5</v>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A294" s="6" t="s">
         <v>469</v>
       </c>
@@ -24200,7 +24206,7 @@
         <v>4.9543804156663681E-4</v>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A295" s="6" t="s">
         <v>469</v>
       </c>
@@ -24272,7 +24278,7 @@
         <v>5.1534177046273765E-5</v>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A296" s="6" t="s">
         <v>469</v>
       </c>
@@ -24344,7 +24350,7 @@
         <v>2.5440768789515459E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A297" s="6" t="s">
         <v>469</v>
       </c>
@@ -24416,7 +24422,7 @@
         <v>2.3618246454417717E-4</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A298" s="6" t="s">
         <v>469</v>
       </c>
@@ -24488,7 +24494,7 @@
         <v>9.2165674569842621E-5</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A299" s="6" t="s">
         <v>469</v>
       </c>
@@ -24560,7 +24566,7 @@
         <v>7.7649897763450631E-5</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A300" s="6" t="s">
         <v>469</v>
       </c>
@@ -24632,7 +24638,7 @@
         <v>4.7413978389437611E-5</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A301" s="18" t="s">
         <v>469</v>
       </c>
@@ -24704,7 +24710,7 @@
         <v>9.2102286898198998E-5</v>
       </c>
     </row>
-    <row r="302" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A302" s="6" t="s">
         <v>469</v>
       </c>
@@ -24776,7 +24782,7 @@
         <v>9.4346210474383606E-4</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A303" s="6" t="s">
         <v>469</v>
       </c>
@@ -24848,7 +24854,7 @@
         <v>2.041083026924988E-5</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A304" s="6" t="s">
         <v>469</v>
       </c>
@@ -24920,7 +24926,7 @@
         <v>8.9123066330948228E-5</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A305" s="6" t="s">
         <v>469</v>
       </c>
@@ -24992,7 +24998,7 @@
         <v>1.291840748097244E-4</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A306" s="6" t="s">
         <v>469</v>
       </c>
@@ -25064,7 +25070,7 @@
         <v>7.1659762793127297E-4</v>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A307" s="6" t="s">
         <v>469</v>
       </c>
@@ -25136,7 +25142,7 @@
         <v>1.0237108970446757E-4</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A308" s="6" t="s">
         <v>469</v>
       </c>
@@ -25208,7 +25214,7 @@
         <v>3.1193073215831881E-4</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A309" s="6" t="s">
         <v>469</v>
       </c>
@@ -25280,7 +25286,7 @@
         <v>2.1868746717053443E-5</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A310" s="6" t="s">
         <v>469</v>
       </c>
@@ -25352,7 +25358,7 @@
         <v>4.1366794514635007E-4</v>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A311" s="6" t="s">
         <v>469</v>
       </c>
@@ -25424,7 +25430,7 @@
         <v>1.0756887877924548E-4</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A312" s="6" t="s">
         <v>469</v>
       </c>
@@ -25496,7 +25502,7 @@
         <v>2.5957251538067782E-4</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A313" s="6" t="s">
         <v>469</v>
       </c>
@@ -25568,7 +25574,7 @@
         <v>1.74975328805085E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A314" s="6" t="s">
         <v>469</v>
       </c>
@@ -25640,7 +25646,7 @@
         <v>7.9805078599334153E-5</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A315" s="6" t="s">
         <v>469</v>
       </c>
@@ -25712,7 +25718,7 @@
         <v>6.8014971673618387E-5</v>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A316" s="6" t="s">
         <v>469</v>
       </c>
@@ -25784,7 +25790,7 @@
         <v>1.286135857649317E-4</v>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A317" s="6" t="s">
         <v>469</v>
       </c>
@@ -25856,7 +25862,7 @@
         <v>1.6924508328850055E-4</v>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A318" s="6" t="s">
         <v>469</v>
       </c>
@@ -25928,7 +25934,7 @@
         <v>9.1531797853406296E-5</v>
       </c>
     </row>
-    <row r="319" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A319" s="6" t="s">
         <v>469</v>
       </c>
@@ -26000,7 +26006,7 @@
         <v>7.8074595163462972E-4</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A320" s="6" t="s">
         <v>469</v>
       </c>
@@ -26072,7 +26078,7 @@
         <v>2.4328188376826409E-4</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A321" s="18" t="s">
         <v>469</v>
       </c>
@@ -26144,7 +26150,7 @@
         <v>9.9670774892448785E-4</v>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A322" s="6" t="s">
         <v>469</v>
       </c>
@@ -26216,7 +26222,7 @@
         <v>3.0443197060287704E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A323" s="6" t="s">
         <v>469</v>
       </c>
@@ -26288,7 +26294,7 @@
         <v>1.0953389660019811E-4</v>
       </c>
     </row>
-    <row r="324" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A324" s="6" t="s">
         <v>469</v>
       </c>
@@ -26360,7 +26366,7 @@
         <v>8.6397396450272004E-5</v>
       </c>
     </row>
-    <row r="325" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A325" s="6" t="s">
         <v>469</v>
       </c>
@@ -26432,7 +26438,7 @@
         <v>1.2671195561562271E-4</v>
       </c>
     </row>
-    <row r="326" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A326" s="6" t="s">
         <v>469</v>
       </c>
@@ -26504,7 +26510,7 @@
         <v>3.5243545433860039E-5</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A327" s="6" t="s">
         <v>469</v>
       </c>
@@ -26576,7 +26582,7 @@
         <v>7.2135170330454547E-5</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A328" s="6" t="s">
         <v>469</v>
       </c>
@@ -26648,7 +26654,7 @@
         <v>3.1883998836747483E-5</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A329" s="6" t="s">
         <v>469</v>
       </c>
@@ -26720,7 +26726,7 @@
         <v>2.180535904540981E-5</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A330" s="6" t="s">
         <v>469</v>
       </c>
@@ -26792,7 +26798,7 @@
         <v>9.4511018420657053E-5</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A331" s="6" t="s">
         <v>469</v>
       </c>
@@ -26864,7 +26870,7 @@
         <v>2.4372559746976954E-4</v>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A332" s="6" t="s">
         <v>469</v>
       </c>
@@ -26936,7 +26942,7 @@
         <v>1.2740922000370267E-5</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A333" s="6" t="s">
         <v>469</v>
       </c>
@@ -27008,7 +27014,7 @@
         <v>6.4972363434723994E-5</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A334" s="6" t="s">
         <v>469</v>
       </c>
@@ -27080,7 +27086,7 @@
         <v>1.5143314755663965E-4</v>
       </c>
     </row>
-    <row r="335" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A335" s="6" t="s">
         <v>469</v>
       </c>
@@ -27152,7 +27158,7 @@
         <v>1.307053789291716E-4</v>
       </c>
     </row>
-    <row r="336" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A336" s="6" t="s">
         <v>469</v>
       </c>
@@ -27224,7 +27230,7 @@
         <v>3.1503672806885684E-5</v>
       </c>
     </row>
-    <row r="337" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A337" s="6" t="s">
         <v>469</v>
       </c>
@@ -27296,7 +27302,7 @@
         <v>1.3945287761599296E-5</v>
       </c>
     </row>
-    <row r="338" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A338" s="6" t="s">
         <v>469</v>
       </c>
@@ -27368,7 +27374,7 @@
         <v>2.7953963194842226E-5</v>
       </c>
     </row>
-    <row r="339" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A339" s="6" t="s">
         <v>469</v>
       </c>
@@ -27440,7 +27446,7 @@
         <v>2.1900440552875261E-4</v>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A340" s="6" t="s">
         <v>469</v>
       </c>
@@ -27512,7 +27518,7 @@
         <v>6.1853689989857248E-4</v>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A341" s="6" t="s">
         <v>469</v>
       </c>
@@ -27584,7 +27590,7 @@
         <v>5.1027075673124699E-5</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A342" s="6" t="s">
         <v>469</v>
       </c>
@@ -27656,7 +27662,7 @@
         <v>2.0791156299111679E-5</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A343" s="6" t="s">
         <v>469</v>
       </c>
@@ -27728,7 +27734,7 @@
         <v>1.1802784460044496E-4</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A344" s="6" t="s">
         <v>469</v>
       </c>
@@ -27800,7 +27806,7 @@
         <v>2.1868746717053443E-5</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A345" s="6" t="s">
         <v>469</v>
       </c>
@@ -27872,7 +27878,7 @@
         <v>3.2264324866609282E-5</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A346" s="6" t="s">
         <v>469</v>
       </c>
@@ -27944,7 +27950,7 @@
         <v>3.1883998836747483E-5</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A347" s="6" t="s">
         <v>469</v>
       </c>
@@ -28016,7 +28022,7 @@
         <v>1.412277324220147E-4</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A348" s="6" t="s">
         <v>469</v>
       </c>
@@ -28088,7 +28094,7 @@
         <v>5.2675155135859162E-5</v>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A349" s="6" t="s">
         <v>469</v>
       </c>
@@ -28160,7 +28166,7 @@
         <v>1.6354019284057356E-5</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A350" s="6" t="s">
         <v>469</v>
       </c>
@@ -28232,7 +28238,7 @@
         <v>2.2756174120064308E-5</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A351" s="6" t="s">
         <v>469</v>
       </c>
@@ -28304,7 +28310,7 @@
         <v>2.0607332051345142E-4</v>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A352" s="6" t="s">
         <v>469</v>
       </c>
@@ -28376,7 +28382,7 @@
         <v>2.0727768627468046E-5</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A353" s="6" t="s">
         <v>469</v>
       </c>
@@ -28448,7 +28454,7 @@
         <v>2.478457961266057E-5</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A354" s="6" t="s">
         <v>469</v>
       </c>
@@ -28520,7 +28526,7 @@
         <v>3.7271950926456301E-5</v>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A355" s="6" t="s">
         <v>469</v>
       </c>
@@ -28592,7 +28598,7 @@
         <v>5.1927180610464286E-4</v>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A356" s="6" t="s">
         <v>469</v>
       </c>
@@ -28664,7 +28670,7 @@
         <v>1.9396627522951749E-5</v>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A357" s="6" t="s">
         <v>469</v>
       </c>
@@ -28736,7 +28742,7 @@
         <v>1.152387870481251E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A358" s="6" t="s">
         <v>469</v>
       </c>
@@ -28808,7 +28814,7 @@
         <v>1.1166372236742419E-3</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A359" s="6" t="s">
         <v>469</v>
       </c>
@@ -28880,7 +28886,7 @@
         <v>2.9386524573988339E-4</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A360" s="6" t="s">
         <v>469</v>
       </c>
@@ -28952,7 +28958,7 @@
         <v>1.5086265851184694E-5</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A361" s="6" t="s">
         <v>469</v>
       </c>
@@ -29024,7 +29030,7 @@
         <v>3.3658853642769213E-5</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A362" s="6" t="s">
         <v>469</v>
       </c>
@@ -29096,7 +29102,7 @@
         <v>1.3057860358588433E-5</v>
       </c>
     </row>
-    <row r="363" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A363" s="6" t="s">
         <v>469</v>
       </c>
@@ -29168,7 +29174,7 @@
         <v>8.3405498348692523E-4</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A364" s="6" t="s">
         <v>469</v>
       </c>
@@ -29240,7 +29246,7 @@
         <v>5.4069683912019092E-5</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A365" s="6" t="s">
         <v>469</v>
       </c>
@@ -29312,7 +29318,7 @@
         <v>4.8491568807379372E-5</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A366" s="6" t="s">
         <v>469</v>
       </c>
@@ -29384,7 +29390,7 @@
         <v>1.4769327492966528E-5</v>
       </c>
     </row>
-    <row r="367" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A367" s="6" t="s">
         <v>469</v>
       </c>
@@ -29456,7 +29462,7 @@
         <v>1.743160970199912E-5</v>
       </c>
     </row>
-    <row r="368" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A368" s="6" t="s">
         <v>469</v>
       </c>
@@ -29528,7 +29534,7 @@
         <v>1.0598418698815466E-4</v>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A369" s="6" t="s">
         <v>469</v>
       </c>
@@ -29600,7 +29606,7 @@
         <v>3.6447911195089073E-5</v>
       </c>
     </row>
-    <row r="370" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A370" s="6" t="s">
         <v>469</v>
       </c>
@@ -29672,7 +29678,7 @@
         <v>5.1090463344768336E-5</v>
       </c>
     </row>
-    <row r="371" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A371" s="6" t="s">
         <v>469</v>
       </c>
@@ -29744,7 +29750,7 @@
         <v>4.9043041550678981E-4</v>
       </c>
     </row>
-    <row r="372" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A372" s="6" t="s">
         <v>469</v>
       </c>
@@ -29816,7 +29822,7 @@
         <v>1.337986973053809E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A373" s="6" t="s">
         <v>469</v>
       </c>
@@ -29888,7 +29894,7 @@
         <v>4.7223815374506708E-5</v>
       </c>
     </row>
-    <row r="374" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A374" s="6" t="s">
         <v>469</v>
       </c>
@@ -29960,7 +29966,7 @@
         <v>2.7003148120187728E-5</v>
       </c>
     </row>
-    <row r="375" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A375" s="6" t="s">
         <v>469</v>
       </c>
@@ -30032,7 +30038,7 @@
         <v>1.29944726869448E-5</v>
       </c>
     </row>
-    <row r="376" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A376" s="6" t="s">
         <v>469</v>
       </c>
@@ -30104,7 +30110,7 @@
         <v>2.5608619344027801E-5</v>
       </c>
     </row>
-    <row r="377" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A377" s="6" t="s">
         <v>469</v>
       </c>
@@ -30176,7 +30182,7 @@
         <v>4.9062057852172075E-4</v>
       </c>
     </row>
-    <row r="378" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A378" s="6" t="s">
         <v>469</v>
       </c>
@@ -30248,7 +30254,7 @@
         <v>5.3816133225444559E-5</v>
       </c>
     </row>
-    <row r="379" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A379" s="6" t="s">
         <v>469</v>
       </c>
@@ -30320,7 +30326,7 @@
         <v>1.6861120657206421E-5</v>
       </c>
     </row>
-    <row r="380" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A380" s="6" t="s">
         <v>469</v>
       </c>
@@ -30392,7 +30398,7 @@
         <v>2.0474217940893513E-5</v>
       </c>
     </row>
-    <row r="381" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A381" s="6" t="s">
         <v>469</v>
       </c>
@@ -30464,7 +30470,7 @@
         <v>4.4371370150543218E-5</v>
       </c>
     </row>
-    <row r="382" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A382" s="6" t="s">
         <v>469</v>
       </c>
@@ -30536,7 +30542,7 @@
         <v>1.4705939821322894E-5</v>
       </c>
     </row>
-    <row r="383" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A383" s="6" t="s">
         <v>469</v>
       </c>
@@ -30608,7 +30614,7 @@
         <v>1.6831962328250352E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A384" s="6" t="s">
         <v>469</v>
       </c>
@@ -30680,7 +30686,7 @@
         <v>5.9239582411273811E-3</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A385" s="6" t="s">
         <v>469</v>
       </c>
@@ -30752,7 +30758,7 @@
         <v>1.9575380756986795E-3</v>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A386" s="6" t="s">
         <v>469</v>
       </c>
@@ -30824,7 +30830,7 @@
         <v>1.9219142042349577E-4</v>
       </c>
     </row>
-    <row r="387" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A387" s="6" t="s">
         <v>469</v>
       </c>
@@ -30896,7 +30902,7 @@
         <v>6.8420652772137639E-4</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A388" s="6" t="s">
         <v>469</v>
       </c>
@@ -30968,7 +30974,7 @@
         <v>2.9513299917275602E-3</v>
       </c>
     </row>
-    <row r="389" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A389" s="6" t="s">
         <v>469</v>
       </c>
@@ -31040,7 +31046,7 @@
         <v>3.4704750224889158E-4</v>
       </c>
     </row>
-    <row r="390" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A390" s="6" t="s">
         <v>469</v>
       </c>
@@ -31112,7 +31118,7 @@
         <v>1.381851241831203E-5</v>
       </c>
     </row>
-    <row r="391" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A391" s="6" t="s">
         <v>469</v>
       </c>
@@ -31184,7 +31190,7 @@
         <v>3.0299307045656654E-5</v>
       </c>
     </row>
-    <row r="392" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A392" s="6" t="s">
         <v>469</v>
       </c>
@@ -31256,7 +31262,7 @@
         <v>2.8746309090387639E-4</v>
       </c>
     </row>
-    <row r="393" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A393" s="6" t="s">
         <v>469</v>
       </c>
@@ -31328,7 +31334,7 @@
         <v>1.2726342835892232E-3</v>
       </c>
     </row>
-    <row r="394" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A394" s="6" t="s">
         <v>469</v>
       </c>
@@ -31400,7 +31406,7 @@
         <v>1.1070022975844097E-3</v>
       </c>
     </row>
-    <row r="395" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A395" s="6" t="s">
         <v>469</v>
       </c>
@@ -31472,7 +31478,7 @@
         <v>8.2784299166584923E-5</v>
       </c>
     </row>
-    <row r="396" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A396" s="6" t="s">
         <v>469</v>
       </c>
@@ -31544,7 +31550,7 @@
         <v>1.3632152663679749E-3</v>
       </c>
     </row>
-    <row r="397" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A397" s="6" t="s">
         <v>469</v>
       </c>
@@ -31616,7 +31622,7 @@
         <v>9.4637793763944326E-5</v>
       </c>
     </row>
-    <row r="398" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A398" s="6" t="s">
         <v>469</v>
       </c>
@@ -31688,7 +31694,7 @@
         <v>2.0917931642398945E-5</v>
       </c>
     </row>
-    <row r="399" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A399" s="18" t="s">
         <v>469</v>
       </c>
@@ -31760,7 +31766,7 @@
         <v>3.89834180608344E-5</v>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A400" s="6" t="s">
         <v>469</v>
       </c>
@@ -31832,7 +31838,7 @@
         <v>4.1962638628085157E-5</v>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A401" s="6" t="s">
         <v>469</v>
       </c>
@@ -31904,7 +31910,7 @@
         <v>4.0561771084760863E-4</v>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A402" s="6" t="s">
         <v>469</v>
       </c>
@@ -31976,7 +31982,7 @@
         <v>1.144781349884015E-4</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A403" s="6" t="s">
         <v>469</v>
       </c>
@@ -32048,7 +32054,7 @@
         <v>1.1346393224210337E-4</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A404" s="6" t="s">
         <v>469</v>
       </c>
@@ -32120,7 +32126,7 @@
         <v>2.5862170030602334E-5</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A405" s="6" t="s">
         <v>469</v>
       </c>
@@ -32192,7 +32198,7 @@
         <v>9.1405022510119023E-5</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A406" s="6" t="s">
         <v>469</v>
       </c>
@@ -32264,7 +32270,7 @@
         <v>1.9523402866239015E-5</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A407" s="6" t="s">
         <v>469</v>
       </c>
@@ -32336,7 +32342,7 @@
         <v>1.8128874090079085E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A408" s="6" t="s">
         <v>469</v>
       </c>
@@ -32408,7 +32414,7 @@
         <v>4.8174630449161206E-4</v>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A409" s="6" t="s">
         <v>469</v>
       </c>
@@ -32480,7 +32486,7 @@
         <v>1.9586790537882648E-5</v>
       </c>
     </row>
-    <row r="410" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A410" s="6" t="s">
         <v>469</v>
       </c>
@@ -32552,7 +32558,7 @@
         <v>4.2913453702739653E-4</v>
       </c>
     </row>
-    <row r="411" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A411" s="6" t="s">
         <v>469</v>
       </c>
@@ -32624,7 +32630,7 @@
         <v>6.8179779619891836E-4</v>
       </c>
     </row>
-    <row r="412" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A412" s="6" t="s">
         <v>469</v>
       </c>
@@ -32696,7 +32702,7 @@
         <v>6.1010633956996927E-4</v>
       </c>
     </row>
-    <row r="413" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A413" s="6" t="s">
         <v>469</v>
       </c>
@@ -32768,7 +32774,7 @@
         <v>1.4008675433242929E-5</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A414" s="6" t="s">
         <v>469</v>
       </c>
@@ -32840,7 +32846,7 @@
         <v>6.8724913596027084E-4</v>
       </c>
     </row>
-    <row r="415" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A415" s="6" t="s">
         <v>469</v>
       </c>
@@ -32912,7 +32918,7 @@
         <v>1.6778716684069699E-4</v>
       </c>
     </row>
-    <row r="416" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A416" s="6" t="s">
         <v>469</v>
       </c>
@@ -32984,7 +32990,7 @@
         <v>1.5751836403442843E-4</v>
       </c>
     </row>
-    <row r="417" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A417" s="6" t="s">
         <v>469</v>
       </c>
@@ -33056,7 +33062,7 @@
         <v>1.4072063104886563E-5</v>
       </c>
     </row>
-    <row r="418" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A418" s="6" t="s">
         <v>469</v>
       </c>
@@ -33128,7 +33134,7 @@
         <v>7.7016021047014293E-5</v>
       </c>
     </row>
-    <row r="419" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A419" s="6" t="s">
         <v>469</v>
       </c>
@@ -33200,7 +33206,7 @@
         <v>1.7615433949765658E-4</v>
       </c>
     </row>
-    <row r="420" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A420" s="6" t="s">
         <v>469</v>
       </c>
@@ -33272,7 +33278,7 @@
         <v>3.8032602986179899E-5</v>
       </c>
     </row>
-    <row r="421" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A421" s="6" t="s">
         <v>469</v>
       </c>
@@ -33344,7 +33350,7 @@
         <v>1.9035317794583039E-4</v>
       </c>
     </row>
-    <row r="422" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A422" s="6" t="s">
         <v>469</v>
       </c>
@@ -33416,7 +33422,7 @@
         <v>1.5308122701937409E-4</v>
       </c>
     </row>
-    <row r="423" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A423" s="6" t="s">
         <v>469</v>
       </c>
@@ -33488,7 +33494,7 @@
         <v>1.1346393224210337E-4</v>
       </c>
     </row>
-    <row r="424" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A424" s="6" t="s">
         <v>469</v>
       </c>
@@ -33560,7 +33566,7 @@
         <v>5.9140697643509747E-5</v>
       </c>
     </row>
-    <row r="425" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A425" s="6" t="s">
         <v>469</v>
       </c>
@@ -33632,7 +33638,7 @@
         <v>1.9998810403566264E-4</v>
       </c>
     </row>
-    <row r="426" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A426" s="6" t="s">
         <v>469</v>
       </c>
@@ -33704,7 +33710,7 @@
         <v>2.2211040143929061E-4</v>
       </c>
     </row>
-    <row r="427" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A427" s="6" t="s">
         <v>469</v>
       </c>
@@ -33776,7 +33782,7 @@
         <v>4.8618344150666641E-4</v>
       </c>
     </row>
-    <row r="428" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A428" s="6" t="s">
         <v>469</v>
       </c>
@@ -33848,7 +33854,7 @@
         <v>2.3498190204324677E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A429" s="6" t="s">
         <v>469</v>
       </c>
@@ -33920,7 +33926,7 @@
         <v>5.7048904479269849E-5</v>
       </c>
     </row>
-    <row r="430" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A430" s="6" t="s">
         <v>469</v>
       </c>
@@ -33992,7 +33998,7 @@
         <v>1.068906306926586E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A431" s="6" t="s">
         <v>469</v>
       </c>
@@ -34064,7 +34070,7 @@
         <v>1.0200977997609885E-3</v>
       </c>
     </row>
-    <row r="432" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A432" s="6" t="s">
         <v>469</v>
       </c>
@@ -34136,7 +34142,7 @@
         <v>5.2104666091066467E-5</v>
       </c>
     </row>
-    <row r="433" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A433" s="6" t="s">
         <v>469</v>
       </c>
@@ -34208,7 +34214,7 @@
         <v>5.8259609007663246E-4</v>
       </c>
     </row>
-    <row r="434" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A434" s="6" t="s">
         <v>469</v>
       </c>
@@ -34280,7 +34286,7 @@
         <v>5.8443433255429779E-5</v>
       </c>
     </row>
-    <row r="435" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A435" s="6" t="s">
         <v>469</v>
       </c>
@@ -34352,7 +34358,7 @@
         <v>8.2023647106861325E-5</v>
       </c>
     </row>
-    <row r="436" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A436" s="6" t="s">
         <v>469</v>
       </c>
@@ -34424,7 +34430,7 @@
         <v>9.1690267032515382E-4</v>
       </c>
     </row>
-    <row r="437" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A437" s="6" t="s">
         <v>469</v>
       </c>
@@ -34496,7 +34502,7 @@
         <v>6.4294115348137123E-4</v>
       </c>
     </row>
-    <row r="438" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A438" s="6" t="s">
         <v>469</v>
       </c>
@@ -34568,7 +34574,7 @@
         <v>2.1234870000617111E-5</v>
       </c>
     </row>
-    <row r="439" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A439" s="6" t="s">
         <v>469</v>
       </c>
@@ -34640,7 +34646,7 @@
         <v>6.9086223324395788E-4</v>
       </c>
     </row>
-    <row r="440" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A440" s="6" t="s">
         <v>469</v>
       </c>
@@ -34712,7 +34718,7 @@
         <v>1.258498832812693E-3</v>
       </c>
     </row>
-    <row r="441" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A441" s="18" t="s">
         <v>469</v>
       </c>
@@ -34784,7 +34790,7 @@
         <v>8.5788874802493129E-4</v>
       </c>
     </row>
-    <row r="442" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A442" s="6" t="s">
         <v>469</v>
       </c>
@@ -34856,7 +34862,7 @@
         <v>1.5339816537759227E-4</v>
       </c>
     </row>
-    <row r="443" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A443" s="6" t="s">
         <v>469</v>
       </c>
@@ -34928,7 +34934,7 @@
         <v>2.8068061003800769E-4</v>
       </c>
     </row>
-    <row r="444" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A444" s="6" t="s">
         <v>469</v>
       </c>
@@ -35000,7 +35006,7 @@
         <v>5.1103140879097059E-4</v>
       </c>
     </row>
-    <row r="445" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A445" s="6" t="s">
         <v>469</v>
       </c>
@@ -35072,7 +35078,7 @@
         <v>1.555343299119827E-3</v>
       </c>
     </row>
-    <row r="446" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A446" s="6" t="s">
         <v>469</v>
       </c>
@@ -35144,7 +35150,7 @@
         <v>3.2517875553183815E-5</v>
       </c>
     </row>
-    <row r="447" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A447" s="6" t="s">
         <v>469</v>
       </c>
@@ -35216,7 +35222,7 @@
         <v>1.5529979552690128E-5</v>
       </c>
     </row>
-    <row r="448" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A448" s="6" t="s">
         <v>469</v>
       </c>
@@ -35288,7 +35294,7 @@
         <v>1.2221143092892476E-4</v>
       </c>
     </row>
-    <row r="449" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A449" s="6" t="s">
         <v>469</v>
       </c>
@@ -35360,7 +35366,7 @@
         <v>2.6838340173914284E-4</v>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A450" s="6" t="s">
         <v>469</v>
       </c>
@@ -35432,7 +35438,7 @@
         <v>3.3912404329343745E-5</v>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A451" s="6" t="s">
         <v>469</v>
       </c>
@@ -35504,7 +35510,7 @@
         <v>7.2895822390178146E-5</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A452" s="6" t="s">
         <v>469</v>
       </c>
@@ -35576,7 +35582,7 @@
         <v>1.7559018922002824E-3</v>
       </c>
     </row>
-    <row r="453" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A453" s="6" t="s">
         <v>469</v>
       </c>
@@ -35648,7 +35654,7 @@
         <v>4.4941859195335913E-5</v>
       </c>
     </row>
-    <row r="454" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A454" s="6" t="s">
         <v>469</v>
       </c>
@@ -35720,7 +35726,7 @@
         <v>4.6526550986426746E-5</v>
       </c>
     </row>
-    <row r="455" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A455" s="6" t="s">
         <v>469</v>
       </c>
@@ -35792,7 +35798,7 @@
         <v>5.5508584058329565E-4</v>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A456" s="6" t="s">
         <v>469</v>
       </c>
@@ -35864,7 +35870,7 @@
         <v>4.9505771553677503E-5</v>
       </c>
     </row>
-    <row r="457" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A457" s="6" t="s">
         <v>469</v>
       </c>
@@ -35936,7 +35942,7 @@
         <v>2.9183684024728713E-4</v>
       </c>
     </row>
-    <row r="458" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A458" s="6" t="s">
         <v>469</v>
       </c>
@@ -36008,7 +36014,7 @@
         <v>1.9840341224457181E-5</v>
       </c>
     </row>
-    <row r="459" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A459" s="18" t="s">
         <v>469</v>
       </c>
@@ -36080,7 +36086,7 @@
         <v>3.5053382418929143E-5</v>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A460" s="6" t="s">
         <v>469</v>
       </c>
@@ -36152,7 +36158,7 @@
         <v>6.2153513676731628E-3</v>
       </c>
     </row>
-    <row r="461" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A461" s="6" t="s">
         <v>469</v>
       </c>
@@ -36224,7 +36230,7 @@
         <v>8.6397396450272004E-5</v>
       </c>
     </row>
-    <row r="462" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A462" s="6" t="s">
         <v>469</v>
       </c>
@@ -36296,7 +36302,7 @@
         <v>4.4878471523692283E-5</v>
       </c>
     </row>
-    <row r="463" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A463" s="6" t="s">
         <v>469</v>
       </c>
@@ -36368,7 +36374,7 @@
         <v>1.8762750806515417E-5</v>
       </c>
     </row>
-    <row r="464" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A464" s="6" t="s">
         <v>469</v>
       </c>
@@ -36440,7 +36446,7 @@
         <v>2.5672007015671434E-5</v>
       </c>
     </row>
-    <row r="465" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A465" s="18" t="s">
         <v>469</v>
       </c>
@@ -36512,7 +36518,7 @@
         <v>1.5865934212401381E-4</v>
       </c>
     </row>
-    <row r="466" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A466" s="6" t="s">
         <v>469</v>
       </c>
@@ -36584,7 +36590,7 @@
         <v>6.0915552449531477E-5</v>
       </c>
     </row>
-    <row r="467" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A467" s="6" t="s">
         <v>469</v>
       </c>
@@ -36656,7 +36662,7 @@
         <v>7.1881619643880015E-5</v>
       </c>
     </row>
-    <row r="468" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A468" s="6" t="s">
         <v>469</v>
       </c>
@@ -36728,7 +36734,7 @@
         <v>1.4959490507897427E-5</v>
       </c>
     </row>
-    <row r="469" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A469" s="6" t="s">
         <v>469</v>
       </c>
@@ -36800,7 +36806,7 @@
         <v>5.7910976813623264E-4</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A470" s="6" t="s">
         <v>469</v>
       </c>
@@ -36872,7 +36878,7 @@
         <v>1.5720142567621025E-4</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A471" s="27" t="s">
         <v>469</v>
       </c>
@@ -36944,7 +36950,7 @@
         <v>2.0347442597606247E-5</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A472" s="27" t="s">
         <v>469</v>
       </c>
@@ -37016,7 +37022,7 @@
         <v>3.6384523523445436E-5</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A473" s="27" t="s">
         <v>469</v>
       </c>
@@ -37088,7 +37094,7 @@
         <v>1.4642552149679261E-5</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A474" s="27" t="s">
         <v>469</v>
       </c>
@@ -37160,7 +37166,7 @@
         <v>2.5545231672384168E-5</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A475" s="27" t="s">
         <v>469</v>
       </c>
@@ -37232,7 +37238,7 @@
         <v>9.8314278719275044E-5</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A476" s="27" t="s">
         <v>469</v>
       </c>
@@ -37304,7 +37310,7 @@
         <v>1.0382900615227113E-4</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A477" s="27" t="s">
         <v>469</v>
       </c>
@@ -37376,7 +37382,7 @@
         <v>1.901630149308995E-5</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A478" s="27" t="s">
         <v>469</v>
       </c>
@@ -37448,7 +37454,7 @@
         <v>1.597369325419556E-5</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A479" s="27" t="s">
         <v>469</v>
       </c>
@@ -37520,7 +37526,7 @@
         <v>2.3643601523075172E-5</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A480" s="27" t="s">
         <v>469</v>
       </c>
@@ -37592,7 +37598,7 @@
         <v>1.2728244466041541E-4</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A481" s="27" t="s">
         <v>469</v>
       </c>
@@ -37664,7 +37670,7 @@
         <v>4.4307982478899581E-5</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A482" s="27" t="s">
         <v>469</v>
       </c>
@@ -37736,7 +37742,7 @@
         <v>3.2961589254689244E-5</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A483" s="27" t="s">
         <v>469</v>
       </c>
@@ -37808,7 +37814,7 @@
         <v>6.7824808658687491E-5</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A484" s="27" t="s">
         <v>469</v>
       </c>
@@ -37880,7 +37886,7 @@
         <v>6.3767997673494967E-5</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A485" s="27" t="s">
         <v>469</v>
       </c>
@@ -37952,7 +37958,7 @@
         <v>1.2931085015301167E-5</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A486" s="27" t="s">
         <v>469</v>
       </c>
@@ -38024,7 +38030,7 @@
         <v>2.7953963194842226E-5</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A487" s="27" t="s">
         <v>469</v>
       </c>
@@ -38096,7 +38102,7 @@
         <v>1.5846917910908293E-4</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A488" s="27" t="s">
         <v>469</v>
       </c>
@@ -38168,7 +38174,7 @@
         <v>1.7178059015424587E-5</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A489" s="27" t="s">
         <v>469</v>
       </c>
@@ -38240,7 +38246,7 @@
         <v>2.7573637164980427E-5</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A490" s="27" t="s">
         <v>469</v>
       </c>
@@ -38312,7 +38318,7 @@
         <v>5.0019211693990932E-3</v>
       </c>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A491" s="27" t="s">
         <v>469</v>
       </c>
@@ -38384,7 +38390,7 @@
         <v>3.5680920368201112E-4</v>
       </c>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A492" s="27" t="s">
         <v>469</v>
       </c>
@@ -38456,7 +38462,7 @@
         <v>5.4259846926949988E-5</v>
       </c>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A493" s="27" t="s">
         <v>469</v>
       </c>
@@ -38528,7 +38534,7 @@
         <v>2.2756174120064308E-5</v>
       </c>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A494" s="27" t="s">
         <v>469</v>
       </c>
@@ -38600,7 +38606,7 @@
         <v>8.0946056688919557E-5</v>
       </c>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A495" s="27" t="s">
         <v>469</v>
       </c>
@@ -38672,7 +38678,7 @@
         <v>2.8004673332157132E-4</v>
       </c>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A496" s="27" t="s">
         <v>469</v>
       </c>
@@ -38744,7 +38750,7 @@
         <v>1.2347918436179741E-4</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A497" s="27" t="s">
         <v>469</v>
       </c>
@@ -38816,7 +38822,7 @@
         <v>5.3816133225444559E-5</v>
       </c>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A498" s="27" t="s">
         <v>469</v>
       </c>
@@ -38888,7 +38894,7 @@
         <v>3.5306933105503675E-5</v>
       </c>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A499" s="27" t="s">
         <v>469</v>
       </c>
@@ -38960,7 +38966,7 @@
         <v>1.8699363134871784E-5</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A500" s="27" t="s">
         <v>469</v>
       </c>
@@ -39032,7 +39038,7 @@
         <v>1.3438186388450231E-5</v>
       </c>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A501" s="27" t="s">
         <v>469</v>
       </c>
@@ -39104,7 +39110,7 @@
         <v>1.1780598774969225E-3</v>
       </c>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A502" s="27" t="s">
         <v>469</v>
       </c>
@@ -39176,7 +39182,7 @@
         <v>5.3473839798568942E-4</v>
       </c>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A503" s="27" t="s">
         <v>469</v>
       </c>
@@ -39248,7 +39254,7 @@
         <v>4.2533127672877859E-5</v>
       </c>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A504" s="27" t="s">
         <v>469</v>
       </c>
@@ -39320,7 +39326,7 @@
         <v>4.5956061941634044E-5</v>
       </c>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A505" s="27" t="s">
         <v>469</v>
       </c>
@@ -39392,7 +39398,7 @@
         <v>2.1387000412561831E-4</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A506" s="27" t="s">
         <v>469</v>
       </c>
@@ -39464,7 +39470,7 @@
         <v>3.5661904066708019E-4</v>
       </c>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A507" s="27" t="s">
         <v>469</v>
       </c>
@@ -39536,7 +39542,7 @@
         <v>7.4734064867843511E-5</v>
       </c>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A508" s="27" t="s">
         <v>469</v>
       </c>
@@ -39608,7 +39614,7 @@
         <v>1.9396627522951749E-5</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A509" s="27" t="s">
         <v>469</v>
       </c>
@@ -39680,7 +39686,7 @@
         <v>2.5608619344027801E-5</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A510" s="27" t="s">
         <v>469</v>
       </c>
@@ -39752,7 +39758,7 @@
         <v>1.3311411045162966E-5</v>
       </c>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A511" s="27" t="s">
         <v>469</v>
       </c>
@@ -39824,7 +39830,7 @@
         <v>4.1252696705676466E-4</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A512" s="27" t="s">
         <v>469</v>
       </c>
@@ -39896,7 +39902,7 @@
         <v>2.6686209761969565E-5</v>
       </c>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A513" s="27" t="s">
         <v>469</v>
       </c>
@@ -39968,7 +39974,7 @@
         <v>1.0439949519706383E-4</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A514" s="27" t="s">
         <v>469</v>
       </c>
@@ -40040,7 +40046,7 @@
         <v>6.6049953852665756E-4</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A515" s="27" t="s">
         <v>469</v>
       </c>
@@ -40112,7 +40118,7 @@
         <v>7.7206184061945202E-5</v>
       </c>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A516" s="27" t="s">
         <v>469</v>
       </c>
@@ -40184,7 +40190,7 @@
         <v>5.0448980107734766E-3</v>
       </c>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A517" s="27" t="s">
         <v>469</v>
       </c>
@@ -40256,7 +40262,7 @@
         <v>7.0177125153382718E-3</v>
       </c>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.35">
       <c r="T518" s="29">
         <f>SUM(T2:T517)</f>
         <v>15775938.35</v>
@@ -40272,28 +40278,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A57D81-BD8F-42CC-B2B9-B15F643EC933}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>933</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>934</v>
       </c>
@@ -40301,30 +40307,30 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>937</v>
       </c>
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
         <v>935</v>
       </c>
       <c r="B5" s="11">
         <v>1068</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
         <v>936</v>
       </c>
       <c r="B6" s="11">
         <v>546</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>932</v>
       </c>
       <c r="B7" s="11">
